--- a/Chonqqing Power Grid/data-output/配网合并删除增加电商等14-18-金额.xlsx
+++ b/Chonqqing Power Grid/data-output/配网合并删除增加电商等14-18-金额.xlsx
@@ -2099,16 +2099,16 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1800193.920000001</v>
+        <v>112512.12</v>
       </c>
       <c r="E66">
-        <v>672924.4800000002</v>
+        <v>42057.78</v>
       </c>
       <c r="F66">
-        <v>449.2800000000001</v>
+        <v>14.04</v>
       </c>
       <c r="G66">
-        <v>37333.44</v>
+        <v>2333.34</v>
       </c>
     </row>
     <row r="67" spans="1:7">
